--- a/DataEntry/Data/Documents/Token.xlsx
+++ b/DataEntry/Data/Documents/Token.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACD785A-3DAF-4C5F-A573-FF9E33E6E196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FACE833-E2E0-411E-BCBD-03D02AE84005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Token</t>
   </si>
@@ -61,82 +61,35 @@
     <t>8</t>
   </si>
   <si>
-    <t>26010399906550</t>
-  </si>
-  <si>
-    <t>Sushant Kulkarni</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Registered</t>
-  </si>
-  <si>
-    <t>swapanakd@gmail.com</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>26010399900046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anand Deshmukh </t>
-  </si>
-  <si>
-    <t>Submitted</t>
-  </si>
-  <si>
-    <t>raservicespune@gmail.com</t>
-  </si>
-  <si>
-    <t>26010499905564</t>
-  </si>
-  <si>
-    <t>Vanarase Shilpa</t>
-  </si>
-  <si>
-    <t>26010499902939</t>
-  </si>
-  <si>
-    <t>Urane Rajan</t>
-  </si>
-  <si>
     <t>Created</t>
   </si>
   <si>
-    <t>25122299900005</t>
-  </si>
-  <si>
-    <t>Nagmode-Kumbhar</t>
-  </si>
-  <si>
-    <t>25121099902654</t>
-  </si>
-  <si>
-    <t>Sante Kanad</t>
-  </si>
-  <si>
-    <t>26010899902764</t>
-  </si>
-  <si>
-    <t>Ankush Pandhare</t>
-  </si>
-  <si>
     <t>ankush.pandhare@yahoo.com</t>
+  </si>
+  <si>
+    <t>26010999904309</t>
+  </si>
+  <si>
+    <t>Laxman Deokate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,18 +129,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -525,221 +479,17 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>9527917600</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>9011092282</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>8689888190</v>
       </c>
     </row>
   </sheetData>

--- a/DataEntry/Data/Documents/Token.xlsx
+++ b/DataEntry/Data/Documents/Token.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FACE833-E2E0-411E-BCBD-03D02AE84005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F7290A-15B4-4EBB-938C-F48719552F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
   <si>
     <t>Token</t>
   </si>
@@ -28,49 +29,139 @@
     <t>Name</t>
   </si>
   <si>
+    <t>TokenDate</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Mobile2</t>
+  </si>
+  <si>
+    <t>PoliceStation</t>
+  </si>
+  <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>Identifiers</t>
+  </si>
+  <si>
+    <t>Challan</t>
+  </si>
+  <si>
+    <t>RentDetails</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>DHC</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>26010499905564</t>
+  </si>
+  <si>
+    <t>Vanarase Shilpa</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>raservicespune@gmail.com</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>26010499902939</t>
+  </si>
+  <si>
+    <t>Rajan Urane(Monde)</t>
+  </si>
+  <si>
+    <t>25122299900005</t>
+  </si>
+  <si>
+    <t>Manoj Nagmode(Kumbhar)</t>
+  </si>
+  <si>
+    <t>manoj.nagmode@gmail.com</t>
+  </si>
+  <si>
+    <t>25121099902654</t>
+  </si>
+  <si>
+    <t>Kanad Sante</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>PoliceStation</t>
-  </si>
-  <si>
-    <t>Parties</t>
-  </si>
-  <si>
-    <t>Identifiers</t>
-  </si>
-  <si>
-    <t>Challan</t>
-  </si>
-  <si>
-    <t>RentDetails</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Created</t>
+    <t>26010899902764</t>
+  </si>
+  <si>
+    <t>Ankush Pandhare(Bapat)</t>
   </si>
   <si>
     <t>ankush.pandhare@yahoo.com</t>
   </si>
   <si>
-    <t>26010999904309</t>
-  </si>
-  <si>
-    <t>Laxman Deokate</t>
+    <t>mf.manish@gmail.com</t>
+  </si>
+  <si>
+    <t>26010399900046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anand Deshmukh </t>
+  </si>
+  <si>
+    <t>ananddeshmukh2300@gmail.com</t>
+  </si>
+  <si>
+    <t>vshila79@gmail.com</t>
+  </si>
+  <si>
+    <t>25122099902350</t>
+  </si>
+  <si>
+    <t>Manoj Nagmode(Kodlinge)</t>
+  </si>
+  <si>
+    <t>SubmissionDate</t>
+  </si>
+  <si>
+    <t>rajanurane@59gmail.com</t>
+  </si>
+  <si>
+    <t>Manoj Zambare</t>
+  </si>
+  <si>
+    <t>26011199903002</t>
   </si>
 </sst>
 </file>
@@ -134,14 +225,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,83 +508,632 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="12" width="16.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="4" width="21.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" ht="23.25" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>9158602535</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>46031</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>46032</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>9226771488</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>46027</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>9766484746</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>8689888190</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>9226771488</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>46033</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03A6F413-9290-4C7F-891E-BDED70CC2E42}">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2">
+        <v>8689888190</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>9766484746</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>9158602535</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>9226771488</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>8689888190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>9226771488</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/Token.xlsx
+++ b/DataEntry/Data/Documents/Token.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F7290A-15B4-4EBB-938C-F48719552F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858AA3A1-1E9C-4246-AB8D-21D73615B193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="49">
   <si>
     <t>Token</t>
   </si>
@@ -32,6 +32,9 @@
     <t>TokenDate</t>
   </si>
   <si>
+    <t>SubmissionDate</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -92,13 +95,16 @@
     <t>Done</t>
   </si>
   <si>
+    <t>26010499902939</t>
+  </si>
+  <si>
+    <t>Rajan Urane(Monde)</t>
+  </si>
+  <si>
     <t>Submitted</t>
   </si>
   <si>
-    <t>26010499902939</t>
-  </si>
-  <si>
-    <t>Rajan Urane(Monde)</t>
+    <t>rajanurane@59gmail.com</t>
   </si>
   <si>
     <t>25122299900005</t>
@@ -119,49 +125,49 @@
     <t>Created</t>
   </si>
   <si>
+    <t>26010399900046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anand Deshmukh </t>
+  </si>
+  <si>
+    <t>ananddeshmukh2300@gmail.com</t>
+  </si>
+  <si>
+    <t>26010899902764</t>
+  </si>
+  <si>
+    <t>Ankush Pandhare(Bapat)</t>
+  </si>
+  <si>
+    <t>ankush.pandhare@yahoo.com</t>
+  </si>
+  <si>
+    <t>mf.manish@gmail.com</t>
+  </si>
+  <si>
+    <t>25122099902350</t>
+  </si>
+  <si>
+    <t>Manoj Nagmode(Kodlinge)</t>
+  </si>
+  <si>
+    <t>26011199903002</t>
+  </si>
+  <si>
+    <t>Manoj Zambare</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>26010899902764</t>
-  </si>
-  <si>
-    <t>Ankush Pandhare(Bapat)</t>
-  </si>
-  <si>
-    <t>ankush.pandhare@yahoo.com</t>
-  </si>
-  <si>
-    <t>mf.manish@gmail.com</t>
-  </si>
-  <si>
-    <t>26010399900046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anand Deshmukh </t>
-  </si>
-  <si>
-    <t>ananddeshmukh2300@gmail.com</t>
-  </si>
-  <si>
     <t>vshila79@gmail.com</t>
   </si>
   <si>
-    <t>25122099902350</t>
-  </si>
-  <si>
-    <t>Manoj Nagmode(Kodlinge)</t>
-  </si>
-  <si>
-    <t>SubmissionDate</t>
-  </si>
-  <si>
-    <t>rajanurane@59gmail.com</t>
-  </si>
-  <si>
-    <t>Manoj Zambare</t>
-  </si>
-  <si>
-    <t>26011199903002</t>
+    <t xml:space="preserve"> 26011199903014 </t>
+  </si>
+  <si>
+    <t>11/01/2026 11:10:25</t>
   </si>
 </sst>
 </file>
@@ -508,18 +514,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="4" width="21.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
@@ -542,103 +549,103 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>9158602535</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -649,156 +656,156 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2">
         <v>46031</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>46032</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4">
         <v>9226771488</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
         <v>46027</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>9766484746</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>8689888190</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -808,30 +815,43 @@
       <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>9226771488</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2">
         <v>46033</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +865,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9 A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -870,160 +890,160 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>8689888190</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>9766484746</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>9158602535</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1034,82 +1054,82 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>9226771488</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>8689888190</v>
@@ -1123,10 +1143,10 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>9226771488</v>

--- a/DataEntry/Data/Documents/Token.xlsx
+++ b/DataEntry/Data/Documents/Token.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPathProjects\UiPathAutomation\DataEntry\Data\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BB6220-D597-4669-B845-170A57474DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="49">
   <si>
     <t>Token</t>
   </si>
@@ -169,20 +162,19 @@
   </si>
   <si>
     <t>rajanurane@59gmail.com</t>
+  </si>
+  <si>
+    <t>sangrammonde24@gmail.com</t>
+  </si>
+  <si>
+    <t>uranerajan59@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,345 +199,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -553,319 +221,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1123,38 +508,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="19.1428571428571" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="17.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="13.1428571428571" customWidth="1"/>
-    <col min="10" max="10" width="10.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="3" customWidth="1"/>
     <col min="12" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="15.7142857142857" customWidth="1"/>
-    <col min="15" max="15" width="11.2857142857143" customWidth="1"/>
-    <col min="16" max="16" width="15.7142857142857" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" spans="1:18">
+    <row r="1" spans="1:18" ht="23.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +561,7 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1232,7 +617,7 @@
       <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="10">
         <v>9226771488</v>
       </c>
       <c r="I2" t="s">
@@ -1266,7 +651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1282,14 +667,14 @@
       <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,7 +693,7 @@
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="10">
         <v>9766484746</v>
       </c>
       <c r="J4" t="s">
@@ -1327,7 +712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1346,7 +731,7 @@
       <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="10">
         <v>8689888190</v>
       </c>
       <c r="I5" t="s">
@@ -1374,7 +759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -1387,12 +772,12 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="10">
         <v>9226771488</v>
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1406,37 +791,61 @@
         <v>25</v>
       </c>
     </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2">
+        <v>46026</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2">
+        <v>46031</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="10">
+        <v>9423892862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9 $A9:$XFD9"/>
+      <selection activeCell="A9" sqref="A9 A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.8571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="21.4285714285714" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="31.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="34.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="22.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="29.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="18.7142857142857" customWidth="1"/>
-    <col min="10" max="10" width="14.5714285714286" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" spans="1:15">
+    <row r="1" spans="1:15" ht="23.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,7 +974,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -1600,7 +1009,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1623,7 +1032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1646,7 +1055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1669,7 +1078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1689,7 +1098,7 @@
         <v>8689888190</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1708,7 +1117,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/DataEntry/Data/Documents/Token.xlsx
+++ b/DataEntry/Data/Documents/Token.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
   <si>
     <t>Token</t>
   </si>
@@ -144,10 +144,19 @@
     <t>manoj.nagmode@gmail.com</t>
   </si>
   <si>
-    <t>26011199903002</t>
-  </si>
-  <si>
-    <t>Manoj Zambare</t>
+    <t>26011399900861</t>
+  </si>
+  <si>
+    <t>Manoj Bhaskar Zambare</t>
+  </si>
+  <si>
+    <t>13/01/2026 01:13:08</t>
+  </si>
+  <si>
+    <t>26011399901143</t>
+  </si>
+  <si>
+    <t>13/01/2026 02:41:56</t>
   </si>
   <si>
     <t>Date</t>
@@ -1129,13 +1138,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="18.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.7142857142857" customWidth="1"/>
@@ -1399,10 +1408,24 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2">
-        <v>46033</v>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1419,7 +1442,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9 $A9:$XFD9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1444,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -1567,10 +1590,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1579,7 +1602,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4">
         <v>9158602535</v>
@@ -1602,10 +1625,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1614,7 +1637,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>

--- a/DataEntry/Data/Documents/Token.xlsx
+++ b/DataEntry/Data/Documents/Token.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="46">
   <si>
     <t>Token</t>
   </si>
@@ -144,19 +144,16 @@
     <t>manoj.nagmode@gmail.com</t>
   </si>
   <si>
-    <t>26011399900861</t>
-  </si>
-  <si>
-    <t>Manoj Bhaskar Zambare</t>
-  </si>
-  <si>
-    <t>13/01/2026 01:13:08</t>
-  </si>
-  <si>
-    <t>26011399901143</t>
-  </si>
-  <si>
-    <t>13/01/2026 02:41:56</t>
+    <t>26010499902939</t>
+  </si>
+  <si>
+    <t>Rajan Urane(Monde)</t>
+  </si>
+  <si>
+    <t>rajanurane@59gmail.com</t>
+  </si>
+  <si>
+    <t>sangrammonde24@gmail.com</t>
   </si>
   <si>
     <t>Date</t>
@@ -169,15 +166,6 @@
   </si>
   <si>
     <t>vshila79@gmail.com</t>
-  </si>
-  <si>
-    <t>26010499902939</t>
-  </si>
-  <si>
-    <t>Rajan Urane(Monde)</t>
-  </si>
-  <si>
-    <t>rajanurane@59gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1138,13 +1126,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="18.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.7142857142857" customWidth="1"/>
@@ -1401,7 +1389,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -1409,24 +1397,19 @@
         <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>46031</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="G7" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1425,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1467,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -1590,10 +1573,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1602,7 +1585,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <v>9158602535</v>
@@ -1625,10 +1608,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1637,7 +1620,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>20</v>
